--- a/homeCredentatial.xlsx
+++ b/homeCredentatial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="17220" windowHeight="5352"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="17220" windowHeight="5352" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterRoom" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="104">
   <si>
     <t>FullName</t>
   </si>
@@ -278,18 +278,9 @@
     <t>password</t>
   </si>
   <si>
-    <t>jack</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jackshow</t>
-  </si>
-  <si>
     <t>jackshow@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve"> jackshow1</t>
-  </si>
-  <si>
     <t>tc_08</t>
   </si>
   <si>
@@ -318,6 +309,27 @@
   </si>
   <si>
     <t>25000</t>
+  </si>
+  <si>
+    <t>rock1</t>
+  </si>
+  <si>
+    <t>rock2</t>
+  </si>
+  <si>
+    <t>rock3</t>
+  </si>
+  <si>
+    <t>JPNagar</t>
+  </si>
+  <si>
+    <t>Jayanagar</t>
+  </si>
+  <si>
+    <t>E-City</t>
+  </si>
+  <si>
+    <t>BTM</t>
   </si>
 </sst>
 </file>
@@ -679,7 +691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -766,7 +778,7 @@
         <v>70</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -842,7 +854,7 @@
         <v>70</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s">
         <v>15</v>
@@ -918,7 +930,7 @@
         <v>70</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L6" t="s">
         <v>15</v>
@@ -994,7 +1006,7 @@
         <v>70</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
         <v>15</v>
@@ -1070,7 +1082,7 @@
         <v>70</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L10" t="s">
         <v>15</v>
@@ -1146,7 +1158,7 @@
         <v>70</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L12" t="s">
         <v>15</v>
@@ -1222,7 +1234,7 @@
         <v>70</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L14" t="s">
         <v>15</v>
@@ -1268,7 +1280,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
@@ -1298,7 +1310,7 @@
         <v>70</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L16" t="s">
         <v>15</v>
@@ -1374,7 +1386,7 @@
         <v>70</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L18" t="s">
         <v>15</v>
@@ -1409,8 +1421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1485,7 +1497,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1519,7 +1531,7 @@
         <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1553,7 +1565,7 @@
         <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1587,7 +1599,7 @@
         <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1650,7 +1662,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1681,16 +1693,16 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1715,16 +1727,16 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1749,16 +1761,16 @@
         <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1787,10 +1799,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1798,31 +1810,31 @@
         <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/homeCredentatial.xlsx
+++ b/homeCredentatial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="17220" windowHeight="5352" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="17220" windowHeight="5352" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterRoom" sheetId="1" r:id="rId1"/>
@@ -305,9 +305,6 @@
     <t>admin</t>
   </si>
   <si>
-    <t>http://rmgtestingserver/domain/House_Rental_Application/</t>
-  </si>
-  <si>
     <t>25000</t>
   </si>
   <si>
@@ -330,13 +327,16 @@
   </si>
   <si>
     <t>BTM</t>
+  </si>
+  <si>
+    <t>http://localhost/House_Rental/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,12 +351,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -384,7 +378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -778,7 +772,7 @@
         <v>70</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -854,7 +848,7 @@
         <v>70</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s">
         <v>15</v>
@@ -930,7 +924,7 @@
         <v>70</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L6" t="s">
         <v>15</v>
@@ -1006,7 +1000,7 @@
         <v>70</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
         <v>15</v>
@@ -1082,7 +1076,7 @@
         <v>70</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L10" t="s">
         <v>15</v>
@@ -1158,7 +1152,7 @@
         <v>70</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L12" t="s">
         <v>15</v>
@@ -1234,7 +1228,7 @@
         <v>70</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L14" t="s">
         <v>15</v>
@@ -1310,7 +1304,7 @@
         <v>70</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L16" t="s">
         <v>15</v>
@@ -1386,7 +1380,7 @@
         <v>70</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L18" t="s">
         <v>15</v>
@@ -1421,7 +1415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1497,7 +1491,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1531,7 +1525,7 @@
         <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1565,7 +1559,7 @@
         <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1599,7 +1593,7 @@
         <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1693,16 +1687,16 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1727,16 +1721,16 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1761,16 +1755,16 @@
         <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1787,8 +1781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1802,7 +1796,7 @@
         <v>88</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1838,7 +1832,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId2"/>
 </worksheet>
 </file>